--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AF/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AF/15/seed5/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.53</v>
+        <v>13.103</v>
       </c>
     </row>
     <row r="4">
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>13.592</v>
+        <v>13.419</v>
       </c>
     </row>
     <row r="9">
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.3</v>
+        <v>-21.992</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -644,7 +644,7 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>13.396</v>
+        <v>13.143</v>
       </c>
     </row>
     <row r="13">
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>14.314</v>
+        <v>13.072</v>
       </c>
     </row>
     <row r="15">
@@ -814,7 +814,7 @@
         <v>-5.14</v>
       </c>
       <c r="E22" t="n">
-        <v>12.582</v>
+        <v>13.107</v>
       </c>
     </row>
     <row r="23">
